--- a/assets/sponsors/Media Partners APOGEE 2021.xlsx
+++ b/assets/sponsors/Media Partners APOGEE 2021.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Web Development/apogee-2020-main/assets/sponsors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E12728-9D8B-A440-9FE1-9BF5720E039F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12540" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -151,33 +160,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,52 +217,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -420,25 +451,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D12" sqref="C12:D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="22.86"/>
-    <col customWidth="1" min="3" max="4" width="15.71"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +504,8 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -479,8 +515,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -490,8 +526,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -501,8 +537,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -518,8 +554,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -529,8 +565,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -540,8 +576,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -551,8 +587,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -562,8 +598,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -573,8 +609,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -584,7 +620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -595,8 +631,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -606,8 +642,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -617,8 +653,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -628,8 +664,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -639,8 +675,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -650,41 +686,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="E5"/>
-    <hyperlink r:id="rId6" ref="C6"/>
-    <hyperlink r:id="rId7" ref="C7"/>
-    <hyperlink r:id="rId8" ref="C8"/>
-    <hyperlink r:id="rId9" ref="C9"/>
-    <hyperlink r:id="rId10" ref="C10"/>
-    <hyperlink r:id="rId11" ref="C11"/>
-    <hyperlink r:id="rId12" ref="C12"/>
-    <hyperlink r:id="rId13" ref="C13"/>
-    <hyperlink r:id="rId14" ref="C14"/>
-    <hyperlink r:id="rId15" ref="C15"/>
-    <hyperlink r:id="rId16" ref="C16"/>
-    <hyperlink r:id="rId17" ref="C17"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>